--- a/Resources/Members.xlsx
+++ b/Resources/Members.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2bd2eb6d86499ba/Desktop/VS Java/First maven project/first/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2bd2eb6d86499ba/Desktop/VS Java/Data Engeering/Data Ingestion/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC104862495D63345BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C27543DC-9426-49A2-8CD7-48BAA1FFC906}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_F25DC773A252ABDACC104862495D63345BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADDFB73F-ECF8-4258-8764-26BFADFC2E85}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="7530" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="One" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>tt</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,65 +394,65 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
